--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_91__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_91__Reeval_Halton_Modell_1.2.xlsx
@@ -5993,7 +5993,7 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.17995452880859</c:v>
+                  <c:v>90.17994689941406</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-0.06291546672582626</c:v>
@@ -6002,16 +6002,16 @@
                   <c:v>97.74489593505859</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.68411254882812</c:v>
+                  <c:v>97.68412780761719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.3837890625</c:v>
+                  <c:v>94.38379669189453</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.48218154907227</c:v>
+                  <c:v>39.4821891784668</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>96.26136016845703</c:v>
@@ -6035,19 +6035,19 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.13679504394531</c:v>
+                  <c:v>80.13677978515625</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79.912353515625</c:v>
+                  <c:v>79.91234588623047</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>67.31791687011719</c:v>
+                  <c:v>67.31790924072266</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.06291546672582626</c:v>
@@ -6059,22 +6059,22 @@
                   <c:v>8.095038414001465</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.62137031555176</c:v>
+                  <c:v>27.62136840820312</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>51.54720306396484</c:v>
+                  <c:v>51.54719924926758</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93.07718658447266</c:v>
+                  <c:v>93.07717132568359</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>95.794189453125</c:v>
+                  <c:v>95.79418182373047</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>24.82509803771973</c:v>
@@ -6095,10 +6095,10 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>94.00441741943359</c:v>
+                  <c:v>94.00442504882812</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>54.19282531738281</c:v>
+                  <c:v>54.19282150268555</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>97.97441864013672</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59.33104705810547</c:v>
+                  <c:v>59.33103942871094</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>96.25132751464844</c:v>
@@ -6116,7 +6116,7 @@
                   <c:v>88.66359710693359</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.42493629455566</c:v>
+                  <c:v>18.42493057250977</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>49.86834716796875</c:v>
@@ -6161,25 +6161,25 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>94.69408416748047</c:v>
+                  <c:v>94.694091796875</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.83556365966797</c:v>
+                  <c:v>84.83554840087891</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>75.23247528076172</c:v>
+                  <c:v>75.23246765136719</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.62552642822266</c:v>
+                  <c:v>92.62551116943359</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45.75818252563477</c:v>
+                  <c:v>45.75817108154297</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.06291546672582626</c:v>
@@ -6215,7 +6215,7 @@
                   <c:v>77.23493194580078</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>88.9306640625</c:v>
+                  <c:v>88.93064880371094</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>95.89823913574219</c:v>
@@ -6239,7 +6239,7 @@
                   <c:v>84.82135772705078</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.906242370605469</c:v>
+                  <c:v>2.906243562698364</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>96.52011108398438</c:v>
@@ -6254,13 +6254,13 @@
                   <c:v>95.24932098388672</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>87.10955047607422</c:v>
+                  <c:v>87.10956573486328</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>77.90695190429688</c:v>
+                  <c:v>77.90695953369141</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>94.63800048828125</c:v>
@@ -6275,16 +6275,16 @@
                   <c:v>-0.06291546672582626</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>83.85549926757812</c:v>
+                  <c:v>83.85550689697266</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>16.44670104980469</c:v>
+                  <c:v>16.44670295715332</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>62.1970329284668</c:v>
+                  <c:v>62.19702529907227</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.68391418457031</c:v>
+                  <c:v>98.68389892578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>90.17995452880859</v>
+        <v>90.17994689941406</v>
       </c>
       <c r="G4">
         <v>102</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>97.68411254882812</v>
+        <v>97.68412780761719</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>94.3837890625</v>
+        <v>94.38379669189453</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>39.48218154907227</v>
+        <v>39.4821891784668</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>80.13679504394531</v>
+        <v>80.13677978515625</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>79.912353515625</v>
+        <v>79.91234588623047</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>67.31791687011719</v>
+        <v>67.31790924072266</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>27.62137031555176</v>
+        <v>27.62136840820312</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>51.54720306396484</v>
+        <v>51.54719924926758</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>93.07718658447266</v>
+        <v>93.07717132568359</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>95.794189453125</v>
+        <v>95.79418182373047</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>94.00441741943359</v>
+        <v>94.00442504882812</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>54.19282531738281</v>
+        <v>54.19282150268555</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>59.33104705810547</v>
+        <v>59.33103942871094</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.42493629455566</v>
+        <v>18.42493057250977</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>94.69408416748047</v>
+        <v>94.694091796875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>84.83556365966797</v>
+        <v>84.83554840087891</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>72.6528</v>
       </c>
       <c r="F64">
-        <v>75.23247528076172</v>
+        <v>75.23246765136719</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>92.62552642822266</v>
+        <v>92.62551116943359</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>45.75818252563477</v>
+        <v>45.75817108154297</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>88.9306640625</v>
+        <v>88.93064880371094</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2.906242370605469</v>
+        <v>2.906243562698364</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>75.5564</v>
       </c>
       <c r="F91">
-        <v>87.10955047607422</v>
+        <v>87.10956573486328</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>77.90695190429688</v>
+        <v>77.90695953369141</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>94.0264</v>
       </c>
       <c r="F98">
-        <v>83.85549926757812</v>
+        <v>83.85550689697266</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>16.44670104980469</v>
+        <v>16.44670295715332</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>62.1970329284668</v>
+        <v>62.19702529907227</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>98.68391418457031</v>
+        <v>98.68389892578125</v>
       </c>
     </row>
     <row r="102" spans="1:6">
